--- a/Results/TIPDECOMP.xlsx
+++ b/Results/TIPDECOMP.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Blog Catalog 3</t>
   </si>
   <si>
     <t>Threshold</t>
+  </si>
+  <si>
+    <t>Douban</t>
   </si>
 </sst>
 </file>
@@ -361,70 +364,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
